--- a/Nina/2017_22_gebieden_0_01.xlsx
+++ b/Nina/2017_22_gebieden_0_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nina\KI\DataVis\kunstmatigestroom\Nina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63916A3C-C419-4423-A8F5-38EE4637EFED}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5438BB-3230-4BA8-8C0D-2D363C94C516}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,22 +16,19 @@
     <sheet name="2017_stadsdelen_0.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2017_stadsdelen_0.1'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2017_stadsdelen_0.1'!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>gb/std</t>
   </si>
   <si>
     <t>woningen</t>
-  </si>
-  <si>
-    <t>bron: afd. Ruimte en Duurzaamheid/afd. Basisinformatie/OIS</t>
   </si>
   <si>
     <t>804.35</t>
@@ -847,16 +844,12 @@
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1254,15 +1247,15 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38" style="6" customWidth="1"/>
+    <col min="1" max="1" width="38" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.7265625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.453125" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.08984375" style="2" customWidth="1"/>
@@ -1277,841 +1270,832 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43228</v>
+      </c>
+      <c r="E2" s="3">
+        <v>15808</v>
+      </c>
+      <c r="F2" s="3">
+        <v>28646</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10475</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4">
-        <v>43228</v>
-      </c>
-      <c r="E3" s="4">
-        <v>15808</v>
-      </c>
-      <c r="F3" s="4">
-        <v>28646</v>
-      </c>
-      <c r="G3" s="4">
-        <v>10475</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1.51</v>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43194</v>
+      </c>
+      <c r="E3" s="3">
+        <v>12163</v>
+      </c>
+      <c r="F3" s="3">
+        <v>25380</v>
+      </c>
+      <c r="G3" s="3">
+        <v>7146</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="12">
+        <v>86422</v>
+      </c>
+      <c r="E4" s="12">
+        <v>13748</v>
+      </c>
+      <c r="F4" s="12">
+        <v>54026</v>
+      </c>
+      <c r="G4" s="12">
+        <v>8595</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4">
-        <v>43194</v>
-      </c>
-      <c r="E4" s="4">
-        <v>12163</v>
-      </c>
-      <c r="F4" s="4">
-        <v>25380</v>
-      </c>
-      <c r="G4" s="4">
-        <v>7146</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11814</v>
+      </c>
+      <c r="F5" s="3">
+        <v>21360</v>
+      </c>
+      <c r="G5" s="3">
+        <v>7010</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3">
+        <v>34864</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10599</v>
+      </c>
+      <c r="F6" s="3">
+        <v>17597</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5350</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>72978</v>
+      </c>
+      <c r="E7" s="3">
+        <v>23586</v>
+      </c>
+      <c r="F7" s="3">
+        <v>39508</v>
+      </c>
+      <c r="G7" s="3">
+        <v>12769</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="12">
+        <v>143842</v>
+      </c>
+      <c r="E8" s="12">
+        <v>15252</v>
+      </c>
+      <c r="F8" s="12">
+        <v>78465</v>
+      </c>
+      <c r="G8" s="12">
+        <v>8320</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45124</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3222</v>
+      </c>
+      <c r="F9" s="3">
+        <v>19105</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1364</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3">
+        <v>38989</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4578</v>
+      </c>
+      <c r="F10" s="3">
+        <v>17523</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2058</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3">
+        <v>28439</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4636</v>
+      </c>
+      <c r="F11" s="3">
+        <v>11021</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1797</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3">
+        <v>39125</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7497</v>
+      </c>
+      <c r="F12" s="3">
+        <v>17189</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3294</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="12">
+        <v>151677</v>
+      </c>
+      <c r="E13" s="12">
+        <v>4478</v>
+      </c>
+      <c r="F13" s="12">
+        <v>64838</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1914</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3">
+        <v>54566</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11098</v>
+      </c>
+      <c r="F14" s="3">
+        <v>28576</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5812</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3">
+        <v>24951</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3649</v>
+      </c>
+      <c r="F15" s="3">
+        <v>14285</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2089</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3">
+        <v>64915</v>
+      </c>
+      <c r="E16" s="3">
+        <v>17566</v>
+      </c>
+      <c r="F16" s="3">
+        <v>37175</v>
+      </c>
+      <c r="G16" s="3">
+        <v>10060</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="12">
+        <v>144432</v>
+      </c>
+      <c r="E17" s="12">
+        <v>9349</v>
+      </c>
+      <c r="F17" s="12">
+        <v>80036</v>
+      </c>
+      <c r="G17" s="12">
+        <v>5180</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="3">
+        <v>35503</v>
+      </c>
+      <c r="E18" s="3">
+        <v>17328</v>
+      </c>
+      <c r="F18" s="3">
+        <v>18890</v>
+      </c>
+      <c r="G18" s="3">
+        <v>9220</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3">
+        <v>41578</v>
+      </c>
+      <c r="E19" s="3">
+        <v>14453</v>
+      </c>
+      <c r="F19" s="3">
+        <v>20433</v>
+      </c>
+      <c r="G19" s="3">
+        <v>7103</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3">
+        <v>34311</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4140</v>
+      </c>
+      <c r="F20" s="3">
+        <v>18374</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2217</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="3">
+        <v>24375</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5336</v>
+      </c>
+      <c r="F21" s="3">
+        <v>9733</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2131</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="12">
+        <v>135767</v>
+      </c>
+      <c r="E22" s="12">
+        <v>7635</v>
+      </c>
+      <c r="F22" s="12">
+        <v>67430</v>
+      </c>
+      <c r="G22" s="12">
+        <v>3792</v>
+      </c>
+      <c r="H22" s="11">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="3">
+        <v>37691</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5364</v>
+      </c>
+      <c r="F23" s="3">
+        <v>15998</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2277</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="3">
+        <v>27923</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4283</v>
+      </c>
+      <c r="F24" s="3">
+        <v>13911</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2134</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="3">
+        <v>29152</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1033</v>
+      </c>
+      <c r="F25" s="3">
+        <v>12451</v>
+      </c>
+      <c r="G25" s="3">
+        <v>441</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="12">
+        <v>94766</v>
+      </c>
+      <c r="E26" s="12">
+        <v>2269</v>
+      </c>
+      <c r="F26" s="12">
+        <v>42360</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1014</v>
+      </c>
+      <c r="H26" s="11">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="3">
+        <v>25063</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3170</v>
+      </c>
+      <c r="F27" s="3">
+        <v>12211</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1544</v>
+      </c>
+      <c r="H27" s="7">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="3">
+        <v>28491</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4823</v>
+      </c>
+      <c r="F28" s="3">
+        <v>12671</v>
+      </c>
+      <c r="G28" s="3">
+        <v>2145</v>
+      </c>
+      <c r="H28" s="7">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5540</v>
+      </c>
+      <c r="F29" s="3">
+        <v>15783</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2549</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="12">
+        <v>87854</v>
+      </c>
+      <c r="E30" s="12">
+        <v>4391</v>
+      </c>
+      <c r="F30" s="12">
+        <v>40665</v>
+      </c>
+      <c r="G30" s="12">
+        <v>2033</v>
+      </c>
+      <c r="H30" s="11">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="13">
-        <v>86422</v>
-      </c>
-      <c r="E5" s="13">
-        <v>13748</v>
-      </c>
-      <c r="F5" s="13">
-        <v>54026</v>
-      </c>
-      <c r="G5" s="13">
-        <v>8595</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4">
-        <v>36000</v>
-      </c>
-      <c r="E6" s="4">
-        <v>11814</v>
-      </c>
-      <c r="F6" s="4">
-        <v>21360</v>
-      </c>
-      <c r="G6" s="4">
-        <v>7010</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4">
-        <v>34864</v>
-      </c>
-      <c r="E7" s="4">
-        <v>10599</v>
-      </c>
-      <c r="F7" s="4">
-        <v>17597</v>
-      </c>
-      <c r="G7" s="4">
-        <v>5350</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4">
-        <v>72978</v>
-      </c>
-      <c r="E8" s="4">
-        <v>23586</v>
-      </c>
-      <c r="F8" s="4">
-        <v>39508</v>
-      </c>
-      <c r="G8" s="4">
-        <v>12769</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="13">
-        <v>143842</v>
-      </c>
-      <c r="E9" s="13">
-        <v>15252</v>
-      </c>
-      <c r="F9" s="13">
-        <v>78465</v>
-      </c>
-      <c r="G9" s="13">
-        <v>8320</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="4">
-        <v>45124</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3222</v>
-      </c>
-      <c r="F10" s="4">
-        <v>19105</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1364</v>
-      </c>
-      <c r="H10" s="8">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="4">
-        <v>38989</v>
-      </c>
-      <c r="E11" s="4">
-        <v>4578</v>
-      </c>
-      <c r="F11" s="4">
-        <v>17523</v>
-      </c>
-      <c r="G11" s="4">
-        <v>2058</v>
-      </c>
-      <c r="H11" s="8">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="4">
-        <v>28439</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4636</v>
-      </c>
-      <c r="F12" s="4">
-        <v>11021</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1797</v>
-      </c>
-      <c r="H12" s="8">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="4">
-        <v>39125</v>
-      </c>
-      <c r="E13" s="4">
-        <v>7497</v>
-      </c>
-      <c r="F13" s="4">
-        <v>17189</v>
-      </c>
-      <c r="G13" s="4">
-        <v>3294</v>
-      </c>
-      <c r="H13" s="8">
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="13">
-        <v>151677</v>
-      </c>
-      <c r="E14" s="13">
-        <v>4478</v>
-      </c>
-      <c r="F14" s="13">
-        <v>64838</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1914</v>
-      </c>
-      <c r="H14" s="12">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="4">
-        <v>54566</v>
-      </c>
-      <c r="E15" s="4">
-        <v>11098</v>
-      </c>
-      <c r="F15" s="4">
-        <v>28576</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5812</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="4">
-        <v>24951</v>
-      </c>
-      <c r="E16" s="4">
-        <v>3649</v>
-      </c>
-      <c r="F16" s="4">
-        <v>14285</v>
-      </c>
-      <c r="G16" s="4">
-        <v>2089</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="C31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="12">
+        <v>192</v>
+      </c>
+      <c r="E31" s="12">
+        <v>10</v>
+      </c>
+      <c r="F31" s="12">
         <v>38</v>
       </c>
-      <c r="D17" s="4">
-        <v>64915</v>
-      </c>
-      <c r="E17" s="4">
-        <v>17566</v>
-      </c>
-      <c r="F17" s="4">
-        <v>37175</v>
-      </c>
-      <c r="G17" s="4">
-        <v>10060</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="G31" s="12">
+        <v>2</v>
+      </c>
+      <c r="H31" s="11">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="13">
-        <v>144432</v>
-      </c>
-      <c r="E18" s="13">
-        <v>9349</v>
-      </c>
-      <c r="F18" s="13">
-        <v>80036</v>
-      </c>
-      <c r="G18" s="13">
-        <v>5180</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="4">
-        <v>35503</v>
-      </c>
-      <c r="E19" s="4">
-        <v>17328</v>
-      </c>
-      <c r="F19" s="4">
-        <v>18890</v>
-      </c>
-      <c r="G19" s="4">
-        <v>9220</v>
-      </c>
-      <c r="H19" s="8">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="4">
-        <v>41578</v>
-      </c>
-      <c r="E20" s="4">
-        <v>14453</v>
-      </c>
-      <c r="F20" s="4">
-        <v>20433</v>
-      </c>
-      <c r="G20" s="4">
-        <v>7103</v>
-      </c>
-      <c r="H20" s="8">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="4">
-        <v>34311</v>
-      </c>
-      <c r="E21" s="4">
-        <v>4140</v>
-      </c>
-      <c r="F21" s="4">
-        <v>18374</v>
-      </c>
-      <c r="G21" s="4">
-        <v>2217</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="4">
-        <v>24375</v>
-      </c>
-      <c r="E22" s="4">
-        <v>5336</v>
-      </c>
-      <c r="F22" s="4">
-        <v>9733</v>
-      </c>
-      <c r="G22" s="4">
-        <v>2131</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="13">
-        <v>135767</v>
-      </c>
-      <c r="E23" s="13">
-        <v>7635</v>
-      </c>
-      <c r="F23" s="13">
-        <v>67430</v>
-      </c>
-      <c r="G23" s="13">
-        <v>3792</v>
-      </c>
-      <c r="H23" s="12">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="4">
-        <v>37691</v>
-      </c>
-      <c r="E24" s="4">
-        <v>5364</v>
-      </c>
-      <c r="F24" s="4">
-        <v>15998</v>
-      </c>
-      <c r="G24" s="4">
-        <v>2277</v>
-      </c>
-      <c r="H24" s="8">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="4">
-        <v>27923</v>
-      </c>
-      <c r="E25" s="4">
-        <v>4283</v>
-      </c>
-      <c r="F25" s="4">
-        <v>13911</v>
-      </c>
-      <c r="G25" s="4">
-        <v>2134</v>
-      </c>
-      <c r="H25" s="8">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="4">
-        <v>29152</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1033</v>
-      </c>
-      <c r="F26" s="4">
-        <v>12451</v>
-      </c>
-      <c r="G26" s="4">
-        <v>441</v>
-      </c>
-      <c r="H26" s="8">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="13">
-        <v>94766</v>
-      </c>
-      <c r="E27" s="13">
-        <v>2269</v>
-      </c>
-      <c r="F27" s="13">
-        <v>42360</v>
-      </c>
-      <c r="G27" s="13">
-        <v>1014</v>
-      </c>
-      <c r="H27" s="12">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="4">
-        <v>25063</v>
-      </c>
-      <c r="E28" s="4">
-        <v>3170</v>
-      </c>
-      <c r="F28" s="4">
-        <v>12211</v>
-      </c>
-      <c r="G28" s="4">
-        <v>1544</v>
-      </c>
-      <c r="H28" s="8">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="4">
-        <v>28491</v>
-      </c>
-      <c r="E29" s="4">
-        <v>4823</v>
-      </c>
-      <c r="F29" s="4">
-        <v>12671</v>
-      </c>
-      <c r="G29" s="4">
-        <v>2145</v>
-      </c>
-      <c r="H29" s="8">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="4">
-        <v>34300</v>
-      </c>
-      <c r="E30" s="4">
-        <v>5540</v>
-      </c>
-      <c r="F30" s="4">
-        <v>15783</v>
-      </c>
-      <c r="G30" s="4">
-        <v>2549</v>
-      </c>
-      <c r="H30" s="8">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="13">
-        <v>87854</v>
-      </c>
-      <c r="E31" s="13">
-        <v>4391</v>
-      </c>
-      <c r="F31" s="13">
-        <v>40665</v>
-      </c>
-      <c r="G31" s="13">
-        <v>2033</v>
-      </c>
-      <c r="H31" s="12">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="13">
-        <v>192</v>
-      </c>
-      <c r="E32" s="13">
-        <v>10</v>
-      </c>
-      <c r="F32" s="13">
-        <v>38</v>
-      </c>
-      <c r="G32" s="13">
-        <v>2</v>
-      </c>
-      <c r="H32" s="12">
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="17">
+      <c r="D32" s="16">
         <v>844952</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E32" s="16">
         <v>5130</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F32" s="16">
         <v>427858</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G32" s="16">
         <v>2597</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H32" s="15">
         <v>1.97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H35" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Nina/2017_22_gebieden_0_01.xlsx
+++ b/Nina/2017_22_gebieden_0_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nina\KI\DataVis\kunstmatigestroom\Nina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5438BB-3230-4BA8-8C0D-2D363C94C516}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684E1418-A510-4593-8617-224ABF153119}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,9 +253,6 @@
     <t>DX02 Centrum-Oost</t>
   </si>
   <si>
-    <t>A Centrum</t>
-  </si>
-  <si>
     <t>DX03 Westerpark</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
     <t>DX05 Oud-West/De Baarsjes</t>
   </si>
   <si>
-    <t>E West</t>
-  </si>
-  <si>
     <t>DX06 Geuzenveld/Slotermeer</t>
   </si>
   <si>
@@ -280,9 +274,6 @@
     <t>DX09 Slotervaart</t>
   </si>
   <si>
-    <t>F Nieuw-West</t>
-  </si>
-  <si>
     <t>DX10 Oud-Zuid</t>
   </si>
   <si>
@@ -292,9 +283,6 @@
     <t>DX12 De Pijp/Rivierenbuurt</t>
   </si>
   <si>
-    <t>K Zuid</t>
-  </si>
-  <si>
     <t>DX13 Oud-Oost</t>
   </si>
   <si>
@@ -307,9 +295,6 @@
     <t>DX16 IJburg/Zeeburgereiland</t>
   </si>
   <si>
-    <t>M Oost</t>
-  </si>
-  <si>
     <t>DX17 Noord-West</t>
   </si>
   <si>
@@ -319,9 +304,6 @@
     <t>DX19 Noord-Oost</t>
   </si>
   <si>
-    <t>N Noord</t>
-  </si>
-  <si>
     <t>DX20 Bijlmer-Centrum</t>
   </si>
   <si>
@@ -331,13 +313,31 @@
     <t>DX22 Gaasperdam/Driemond</t>
   </si>
   <si>
-    <t>T Zuidoost</t>
-  </si>
-  <si>
-    <t>ZX99 Westpoort</t>
-  </si>
-  <si>
-    <t>ASD Amsterdam</t>
+    <t>Centrum</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Westpoort</t>
+  </si>
+  <si>
+    <t>Zuidoost</t>
+  </si>
+  <si>
+    <t>Noord</t>
+  </si>
+  <si>
+    <t>Oost</t>
+  </si>
+  <si>
+    <t>Zuid</t>
+  </si>
+  <si>
+    <t>Nieuw-West</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>2</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>21</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>58</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>24</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>5</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>26</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>28</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>30</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>32</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>7</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>33</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>35</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>60</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>56</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>38</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>61</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>41</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>62</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>10</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>44</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>46</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>48</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>12</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>50</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>51</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>53</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>14</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>3</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>16</v>
